--- a/Project_Economics_Controller.xlsx
+++ b/Project_Economics_Controller.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm01\Python\Project Economics - 07252021\Project_Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8ECCFD-2870-41E3-98A1-62D9B5F22564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84730678-FA7D-4B46-9DF1-E18D9D2A3379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39180" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{BD7493A7-14C9-4C6F-9534-685E9C41E0BD}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BD7493A7-14C9-4C6F-9534-685E9C41E0BD}"/>
   </bookViews>
   <sheets>
-    <sheet name="User Interface" sheetId="1" r:id="rId1"/>
-    <sheet name="Data_DO_NOT_EDIT" sheetId="2" r:id="rId2"/>
+    <sheet name="User Interface" sheetId="2" r:id="rId1"/>
+    <sheet name="Data_DO_NOT_EDIT" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>P10</t>
   </si>
@@ -46,20 +47,179 @@
     <t>P90</t>
   </si>
   <si>
-    <t>Qi</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Di</t>
+    <t>Incremental Run?</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>NRI</t>
+  </si>
+  <si>
+    <t>Shrink</t>
+  </si>
+  <si>
+    <t>NGL Yield</t>
+  </si>
+  <si>
+    <t>Oil Yield</t>
+  </si>
+  <si>
+    <t>Fixed Cost</t>
+  </si>
+  <si>
+    <t>Variable Gas Cost</t>
+  </si>
+  <si>
+    <t>Variable Oil Cost</t>
+  </si>
+  <si>
+    <t>Overhead</t>
+  </si>
+  <si>
+    <t>Ad Valorem Tax</t>
+  </si>
+  <si>
+    <t>Severance Tax Rate</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Existing</t>
+  </si>
+  <si>
+    <t>Capital Scheduling Table</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Major Phase</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>DEFAULT = 600 MONTHS</t>
+  </si>
+  <si>
+    <t>Non-Incremental</t>
+  </si>
+  <si>
+    <t>Global Variables / Settings</t>
+  </si>
+  <si>
+    <t>Case Variables</t>
+  </si>
+  <si>
+    <t>LOSS Function</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Per Aries</t>
+  </si>
+  <si>
+    <t>Gas Price</t>
+  </si>
+  <si>
+    <t>Oil Price</t>
+  </si>
+  <si>
+    <t>Gas Diff</t>
+  </si>
+  <si>
+    <t>Oil Diff</t>
+  </si>
+  <si>
+    <t>NGL Diff</t>
+  </si>
+  <si>
+    <t>$/mcf</t>
+  </si>
+  <si>
+    <t>$/bbl</t>
+  </si>
+  <si>
+    <t>% of oil price</t>
+  </si>
+  <si>
+    <t>Price Table</t>
+  </si>
+  <si>
+    <t>P(s)</t>
+  </si>
+  <si>
+    <t>Success rate</t>
+  </si>
+  <si>
+    <t>Decline Type</t>
+  </si>
+  <si>
+    <t>Initial Rate (qi)</t>
+  </si>
+  <si>
+    <t>Initial Decline Rate (Di)</t>
+  </si>
+  <si>
+    <t>No Rate (Full Failure)</t>
+  </si>
+  <si>
+    <t>Modified Arps</t>
+  </si>
+  <si>
+    <t>Exponential</t>
+  </si>
+  <si>
+    <t>%/yr (secant-effective)</t>
+  </si>
+  <si>
+    <t>B-factor</t>
+  </si>
+  <si>
+    <t>Unitless</t>
+  </si>
+  <si>
+    <t>Terminal Decline Rate</t>
+  </si>
+  <si>
+    <t>%/yr (exponential)</t>
+  </si>
+  <si>
+    <t>Peak Rate</t>
+  </si>
+  <si>
+    <t>V/V</t>
+  </si>
+  <si>
+    <t>bbl/mmcf</t>
+  </si>
+  <si>
+    <t>$/month</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Inc / Non-Inc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,16 +227,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -84,17 +297,593 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="56">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -403,11 +1192,1015 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21BAB68-E1B0-4054-A48E-8524D8ED8068}">
+  <dimension ref="A1:AB50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="14" width="15.5703125" customWidth="1"/>
+    <col min="19" max="24" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:28" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11">
+        <v>600</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="7">
+        <v>45</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="7">
+        <v>-0.1</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="7">
+        <v>-10.7</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:28" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:28" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1">
+        <v>500</v>
+      </c>
+      <c r="C12" s="1">
+        <v>300</v>
+      </c>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1">
+        <v>80</v>
+      </c>
+      <c r="F12" s="1">
+        <v>50</v>
+      </c>
+      <c r="G12" s="24" t="str">
+        <f>IF(B2="Gas","mcf/d","bbl/d")</f>
+        <v>mcf/d</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:28" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="24" t="str">
+        <f>IF(B2="Gas","mcf/d","bbl/d")</f>
+        <v>mcf/d</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0.9</v>
+      </c>
+      <c r="C19">
+        <v>0.9</v>
+      </c>
+      <c r="D19">
+        <v>0.9</v>
+      </c>
+      <c r="E19">
+        <v>0.9</v>
+      </c>
+      <c r="F19">
+        <v>0.9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>1000</v>
+      </c>
+      <c r="C22">
+        <v>1000</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="E22">
+        <v>1000</v>
+      </c>
+      <c r="F22">
+        <v>1000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>0.5</v>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>800</v>
+      </c>
+      <c r="C25">
+        <v>800</v>
+      </c>
+      <c r="D25">
+        <v>800</v>
+      </c>
+      <c r="E25">
+        <v>800</v>
+      </c>
+      <c r="F25">
+        <v>800</v>
+      </c>
+      <c r="G25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H30" s="3"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H31" s="3"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H32" s="3"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H33" s="3"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H34" s="3"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H35" s="3"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H36" s="3"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H37" s="3"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H41" s="3"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>12</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>15</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H47" s="3"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H48" s="3"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H49" s="3"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H50" s="3"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2:F2">
+    <cfRule type="cellIs" dxfId="55" priority="85" operator="equal">
+      <formula>"Gas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="86" operator="equal">
+      <formula>"Oil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="expression" dxfId="53" priority="81">
+      <formula>$B$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="52" priority="80">
+      <formula>$C$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="51" priority="79">
+      <formula>$D$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="50" priority="78">
+      <formula>$E$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="49" priority="77">
+      <formula>$F$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsText" dxfId="48" priority="76" operator="containsText" text="mcf/d">
+      <formula>NOT(ISERROR(SEARCH("mcf/d",G12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="75" operator="equal">
+      <formula>"bbl/d"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="expression" dxfId="46" priority="74">
+      <formula>$B$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="45" priority="73">
+      <formula>$C$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="44" priority="72">
+      <formula>$D$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="expression" dxfId="43" priority="71">
+      <formula>$E$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="42" priority="70">
+      <formula>$F$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="41" priority="69">
+      <formula>$B$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="52">
+      <formula>$B$11="Exponential"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="39" priority="68">
+      <formula>$C$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="46">
+      <formula>$C$11="Exponential"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="37" priority="67">
+      <formula>$D$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="41">
+      <formula>$D$11="Exponential"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="35" priority="66">
+      <formula>$E$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="36">
+      <formula>$E$11="Exponential"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="33" priority="65">
+      <formula>$F$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="31">
+      <formula>$F$11="Exponential"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="31" priority="53" operator="equal">
+      <formula>"bbl/d"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="54" operator="containsText" text="mcf/d">
+      <formula>NOT(ISERROR(SEARCH("mcf/d",G16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="29" priority="50">
+      <formula>OR($B$11="Exponential", $B$11="Hyperbolic")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="51">
+      <formula>$B$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="27" priority="48">
+      <formula>$B$11="Exponential"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="49">
+      <formula>$B$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>$B$11="Modified Arps"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>$B$11="Hyperbolic"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="23" priority="21">
+      <formula>$C$11="Hyperbolic"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>$C$11="Modified Arps"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>$C$11="Exponential"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="24">
+      <formula>$C$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="19" priority="17">
+      <formula>$D$11="Hyperbolic"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="18">
+      <formula>$D$11="Modified Arps"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>$D$11="Exponential"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="20">
+      <formula>$D$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="15" priority="13">
+      <formula>$E$11="Hyperbolic"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>$E$11="Modified Arps"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>$E$11="Exponential"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="16">
+      <formula>$E$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>$F$11="Hyperbolic"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>$F$11="Modified Arps"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>$F$11="Exponential"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>$F$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>OR($C$11="Exponential", $C$11="Hyperbolic")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$C$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>OR($D$11="Exponential", $D$11="Hyperbolic")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>OR($E$11="Exponential", $E$11="Hyperbolic")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$E$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>OR($F$11="Exponential", $F$11="Hyperbolic")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$F$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:F2" xr:uid="{E686D874-D1F6-4235-B887-452B406E63F5}">
+      <formula1>"Oil, Gas"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:F4" xr:uid="{A69B3DA0-1104-4287-9BC0-2CEA04DD2B25}">
+      <formula1>"Non-Incremental, Incremental"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:F7" xr:uid="{97CF24B0-DA2C-4228-8B73-77EE633BB14A}">
+      <formula1>"NO, BFIT, OK"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:F11" xr:uid="{CE8BF0D8-4834-4C5B-8341-62A935E59C81}">
+      <formula1>"Exponential, Modified Arps, Hyperbolic, CBM Dewatering/Incline, No Rate (Full Failure)"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <picture r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133B84BD-7538-4E1D-8C01-87C7085FAE6A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,44 +2210,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21BAB68-E1B0-4054-A48E-8524D8ED8068}">
-  <dimension ref="A1:D4"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED984C1-3B0A-4CD4-BEA6-F041E19E7488}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project_Economics_Controller.xlsx
+++ b/Project_Economics_Controller.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm01\Python\Project Economics - 07252021\Project_Economics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amalone\Python\Project_Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84730678-FA7D-4B46-9DF1-E18D9D2A3379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D91B1A-CC13-43DE-9CAA-3666829EC77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BD7493A7-14C9-4C6F-9534-685E9C41E0BD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BD7493A7-14C9-4C6F-9534-685E9C41E0BD}"/>
   </bookViews>
   <sheets>
     <sheet name="User Interface" sheetId="2" r:id="rId1"/>
     <sheet name="Data_DO_NOT_EDIT" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Refs_DO_NOT_EDIT" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>P10</t>
   </si>
@@ -65,9 +65,6 @@
     <t>NGL Yield</t>
   </si>
   <si>
-    <t>Oil Yield</t>
-  </si>
-  <si>
     <t>Fixed Cost</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Failure</t>
-  </si>
-  <si>
     <t>Existing</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t>DEFAULT = 600 MONTHS</t>
   </si>
   <si>
-    <t>Non-Incremental</t>
-  </si>
-  <si>
     <t>Global Variables / Settings</t>
   </si>
   <si>
@@ -210,6 +201,84 @@
   </si>
   <si>
     <t>Inc / Non-Inc</t>
+  </si>
+  <si>
+    <t>qi</t>
+  </si>
+  <si>
+    <t>Incremental</t>
+  </si>
+  <si>
+    <t>LOSS</t>
+  </si>
+  <si>
+    <t>Pfail</t>
+  </si>
+  <si>
+    <t>Pbase</t>
+  </si>
+  <si>
+    <t>Di</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Dterm</t>
+  </si>
+  <si>
+    <t>peak</t>
+  </si>
+  <si>
+    <t>shrink</t>
+  </si>
+  <si>
+    <t>ngl_yield</t>
+  </si>
+  <si>
+    <t>fixed_cost</t>
+  </si>
+  <si>
+    <t>var_gas_cost</t>
+  </si>
+  <si>
+    <t>var_oil_cost</t>
+  </si>
+  <si>
+    <t>overhead</t>
+  </si>
+  <si>
+    <t>adval_rate</t>
+  </si>
+  <si>
+    <t>sev_rate</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>incremental</t>
+  </si>
+  <si>
+    <t>p_s</t>
+  </si>
+  <si>
+    <t>Decline_type</t>
+  </si>
+  <si>
+    <t>Hyperbolic</t>
+  </si>
+  <si>
+    <t>CBM Dewatering/Incline</t>
+  </si>
+  <si>
+    <t>Decline Types</t>
+  </si>
+  <si>
+    <t>Case</t>
   </si>
 </sst>
 </file>
@@ -217,7 +286,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -260,22 +329,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
+      <sz val="28"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="28"/>
-      <color theme="0"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +354,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,11 +483,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,66 +503,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="58">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -823,14 +928,14 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1193,255 +1298,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21BAB68-E1B0-4054-A48E-8524D8ED8068}">
-  <dimension ref="A1:AB50"/>
+  <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="7" width="22.7109375" customWidth="1"/>
+    <col min="2" max="7" width="27" customWidth="1"/>
     <col min="8" max="14" width="15.5703125" customWidth="1"/>
     <col min="19" max="24" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:28" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="17">
+        <v>600</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="6">
+        <v>45</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="6">
+        <v>-10.7</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18">
+        <v>0.875</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="19" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="27">
+        <v>0.95</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:28" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="25" t="str">
+        <f>"Failure "&amp;"(P[s] = "&amp;B8&amp;")"</f>
+        <v>Failure (P[s] = 0.95)</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row r="2" spans="1:28" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="11">
-        <v>600</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="7">
-        <v>45</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="7">
-        <v>-0.1</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="7">
-        <v>-10.7</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0.875</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0.39</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="15">
-        <v>1</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:28" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:28" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="B11" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
+      <c r="C11" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
     </row>
     <row r="12" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1">
         <v>500</v>
@@ -1458,53 +1564,53 @@
       <c r="F12" s="1">
         <v>50</v>
       </c>
-      <c r="G12" s="24" t="str">
+      <c r="G12" s="13" t="str">
         <f>IF(B2="Gas","mcf/d","bbl/d")</f>
         <v>mcf/d</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="6">
+        <v>40</v>
+      </c>
+      <c r="B13" s="5">
         <v>0.15</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>0.15</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>0.15</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>0.08</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>0.05</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -1522,416 +1628,459 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="6">
+        <v>47</v>
+      </c>
+      <c r="B15" s="5">
         <v>0.05</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>0.05</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>0.05</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>0.05</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>0.05</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="24" t="str">
+      <c r="G16" s="13" t="str">
         <f>IF(B2="Gas","mcf/d","bbl/d")</f>
         <v>mcf/d</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>0.9</v>
-      </c>
-      <c r="C19">
-        <v>0.9</v>
-      </c>
-      <c r="D19">
-        <v>0.9</v>
-      </c>
-      <c r="E19">
-        <v>0.9</v>
-      </c>
-      <c r="F19">
-        <v>0.9</v>
+        <v>8</v>
+      </c>
+      <c r="B19" s="1">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1">
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>40</v>
-      </c>
-      <c r="C20">
-        <v>40</v>
-      </c>
-      <c r="D20">
-        <v>40</v>
-      </c>
-      <c r="E20">
-        <v>40</v>
-      </c>
-      <c r="F20">
-        <v>40</v>
-      </c>
-      <c r="G20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
+      <c r="A20" t="str">
+        <f>IF(B2="Oil","Gas/Oil Ratio","Oil Yield")</f>
+        <v>Oil Yield</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f>IF(B2="Oil","mcf/bbl","bbl/mmcf")</f>
+        <v>bbl/mmcf</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
+      <c r="B21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1000</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B22">
-        <v>1000</v>
-      </c>
-      <c r="C22">
-        <v>1000</v>
-      </c>
-      <c r="D22">
-        <v>1000</v>
-      </c>
-      <c r="E22">
-        <v>1000</v>
-      </c>
-      <c r="F22">
-        <v>1000</v>
+      <c r="B22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.5</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B23">
-        <v>0.5</v>
-      </c>
-      <c r="C23">
-        <v>0.5</v>
-      </c>
-      <c r="D23">
-        <v>0.5</v>
-      </c>
-      <c r="E23">
-        <v>0.5</v>
-      </c>
-      <c r="F23">
-        <v>0.5</v>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
+      <c r="B24" s="1">
+        <v>800</v>
+      </c>
+      <c r="C24" s="1">
+        <v>800</v>
+      </c>
+      <c r="D24" s="1">
+        <v>800</v>
+      </c>
+      <c r="E24" s="1">
+        <v>800</v>
+      </c>
+      <c r="F24" s="1">
+        <v>800</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="B25">
-        <v>800</v>
-      </c>
-      <c r="C25">
-        <v>800</v>
-      </c>
-      <c r="D25">
-        <v>800</v>
-      </c>
-      <c r="E25">
-        <v>800</v>
-      </c>
-      <c r="F25">
-        <v>800</v>
+      <c r="B25" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.06</v>
       </c>
       <c r="G25" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+      <c r="B26" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.02</v>
+      </c>
       <c r="G26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="H27" s="2"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H28" s="2"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H38" s="2"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H39" s="2"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H40" s="2"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H28" s="3"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H30" s="3"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H31" s="3"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H32" s="3"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H33" s="3"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H34" s="3"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H35" s="3"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H36" s="3"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H37" s="3"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H38" s="3"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H39" s="3"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H40" s="3"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H41" s="3"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="5"/>
+      <c r="B42" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="5"/>
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>12</v>
-      </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>15</v>
-      </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="5"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H47" s="3"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="5"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H48" s="3"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="5"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="4"/>
     </row>
     <row r="49" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H49" s="3"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H50" s="3"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="5"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B2:F2"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B3:F3"/>
@@ -1939,240 +2088,239 @@
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:F2">
-    <cfRule type="cellIs" dxfId="55" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="87" operator="equal">
       <formula>"Gas"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="88" operator="equal">
       <formula>"Oil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="53" priority="81">
+    <cfRule type="expression" dxfId="55" priority="83">
       <formula>$B$11="No Rate (Full Failure)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="52" priority="80">
+    <cfRule type="expression" dxfId="54" priority="82">
       <formula>$C$11="No Rate (Full Failure)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="51" priority="79">
+    <cfRule type="expression" dxfId="53" priority="81">
       <formula>$D$11="No Rate (Full Failure)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="50" priority="78">
+    <cfRule type="expression" dxfId="52" priority="80">
       <formula>$E$11="No Rate (Full Failure)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="49" priority="77">
+    <cfRule type="expression" dxfId="51" priority="79">
       <formula>$F$11="No Rate (Full Failure)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="48" priority="76" operator="containsText" text="mcf/d">
+    <cfRule type="cellIs" dxfId="50" priority="77" operator="equal">
+      <formula>"bbl/d"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="78" operator="containsText" text="mcf/d">
       <formula>NOT(ISERROR(SEARCH("mcf/d",G12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="75" operator="equal">
-      <formula>"bbl/d"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="46" priority="74">
+    <cfRule type="expression" dxfId="48" priority="76">
       <formula>$B$11="No Rate (Full Failure)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="45" priority="73">
+    <cfRule type="expression" dxfId="47" priority="75">
       <formula>$C$11="No Rate (Full Failure)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="44" priority="72">
+    <cfRule type="expression" dxfId="46" priority="74">
       <formula>$D$11="No Rate (Full Failure)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="43" priority="71">
+    <cfRule type="expression" dxfId="45" priority="73">
       <formula>$E$11="No Rate (Full Failure)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="42" priority="70">
+    <cfRule type="expression" dxfId="44" priority="72">
       <formula>$F$11="No Rate (Full Failure)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="41" priority="69">
+    <cfRule type="expression" dxfId="43" priority="54">
+      <formula>$B$11="Exponential"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="71">
       <formula>$B$11="No Rate (Full Failure)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="52">
-      <formula>$B$11="Exponential"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="39" priority="68">
+    <cfRule type="expression" dxfId="41" priority="48">
+      <formula>$C$11="Exponential"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="70">
       <formula>$C$11="No Rate (Full Failure)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="46">
-      <formula>$C$11="Exponential"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="37" priority="67">
+    <cfRule type="expression" dxfId="39" priority="43">
+      <formula>$D$11="Exponential"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="69">
       <formula>$D$11="No Rate (Full Failure)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="41">
-      <formula>$D$11="Exponential"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="35" priority="66">
+    <cfRule type="expression" dxfId="37" priority="38">
+      <formula>$E$11="Exponential"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="68">
       <formula>$E$11="No Rate (Full Failure)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="36">
-      <formula>$E$11="Exponential"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="33" priority="65">
+    <cfRule type="expression" dxfId="35" priority="33">
+      <formula>$F$11="Exponential"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="67">
       <formula>$F$11="No Rate (Full Failure)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="31">
-      <formula>$F$11="Exponential"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="31" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="55" operator="equal">
       <formula>"bbl/d"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="54" operator="containsText" text="mcf/d">
+    <cfRule type="containsText" dxfId="32" priority="56" operator="containsText" text="mcf/d">
       <formula>NOT(ISERROR(SEARCH("mcf/d",G16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="29" priority="50">
+    <cfRule type="expression" dxfId="31" priority="52">
       <formula>OR($B$11="Exponential", $B$11="Hyperbolic")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="51">
+    <cfRule type="expression" dxfId="30" priority="53">
       <formula>$B$11="No Rate (Full Failure)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="27" priority="48">
+    <cfRule type="expression" dxfId="29" priority="27">
+      <formula>$B$11="Hyperbolic"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>$B$11="Modified Arps"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="50">
       <formula>$B$11="Exponential"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="49">
+    <cfRule type="expression" dxfId="26" priority="51">
       <formula>$B$11="No Rate (Full Failure)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26">
-      <formula>$B$11="Modified Arps"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="25">
-      <formula>$B$11="Hyperbolic"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="23" priority="21">
+    <cfRule type="expression" dxfId="25" priority="23">
       <formula>$C$11="Hyperbolic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="24" priority="24">
       <formula>$C$11="Modified Arps"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="23">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>$C$11="Exponential"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="24">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>$C$11="No Rate (Full Failure)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>$D$11="Hyperbolic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>$D$11="Modified Arps"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>$D$11="Exponential"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>$D$11="No Rate (Full Failure)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>$E$11="Hyperbolic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>$E$11="Modified Arps"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>$E$11="Exponential"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>$E$11="No Rate (Full Failure)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>$F$11="Hyperbolic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>$F$11="Modified Arps"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$F$11="Exponential"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>$F$11="No Rate (Full Failure)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>OR($C$11="Exponential", $C$11="Hyperbolic")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$C$11="No Rate (Full Failure)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>OR($D$11="Exponential", $D$11="Hyperbolic")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$D$11="No Rate (Full Failure)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>OR($E$11="Exponential", $E$11="Hyperbolic")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$E$11="No Rate (Full Failure)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>OR($F$11="Exponential", $F$11="Hyperbolic")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$F$11="No Rate (Full Failure)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:F18">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$B$2="Oil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:F19">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B$2="Oil"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -2190,34 +2338,665 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <picture r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133B84BD-7538-4E1D-8C01-87C7085FAE6A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="9" t="str">
+        <f>'User Interface'!$B2</f>
+        <v>Gas</v>
+      </c>
+      <c r="C2" s="9" t="str">
+        <f>'User Interface'!$B2</f>
+        <v>Gas</v>
+      </c>
+      <c r="D2" s="9" t="str">
+        <f>'User Interface'!$B2</f>
+        <v>Gas</v>
+      </c>
+      <c r="E2" s="9" t="str">
+        <f>'User Interface'!$B2</f>
+        <v>Gas</v>
+      </c>
+      <c r="F2" s="9" t="str">
+        <f>'User Interface'!$B2</f>
+        <v>Gas</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="9">
+        <f>'User Interface'!$B3</f>
+        <v>600</v>
+      </c>
+      <c r="C3" s="9">
+        <f>'User Interface'!$B3</f>
+        <v>600</v>
+      </c>
+      <c r="D3" s="9">
+        <f>'User Interface'!$B3</f>
+        <v>600</v>
+      </c>
+      <c r="E3" s="9">
+        <f>'User Interface'!$B3</f>
+        <v>600</v>
+      </c>
+      <c r="F3" s="9">
+        <f>'User Interface'!$B3</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="9" t="b">
+        <f>'User Interface'!$B4="Incremental"</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="b">
+        <f>'User Interface'!$B4="Incremental"</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="b">
+        <f>'User Interface'!$B4="Incremental"</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="b">
+        <f>'User Interface'!$B4="Incremental"</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="b">
+        <f>'User Interface'!$B4="Incremental"</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9">
+        <f>'User Interface'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <f>'User Interface'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <f>'User Interface'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <f>'User Interface'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <f>'User Interface'!$B5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9">
+        <f>'User Interface'!$B6</f>
+        <v>0.875</v>
+      </c>
+      <c r="C6" s="9">
+        <f>'User Interface'!$B6</f>
+        <v>0.875</v>
+      </c>
+      <c r="D6" s="9">
+        <f>'User Interface'!$B6</f>
+        <v>0.875</v>
+      </c>
+      <c r="E6" s="9">
+        <f>'User Interface'!$B6</f>
+        <v>0.875</v>
+      </c>
+      <c r="F6" s="9">
+        <f>'User Interface'!$B6</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="9" t="str">
+        <f>'User Interface'!$B7</f>
+        <v>NO</v>
+      </c>
+      <c r="C7" s="9" t="str">
+        <f>'User Interface'!$B7</f>
+        <v>NO</v>
+      </c>
+      <c r="D7" s="9" t="str">
+        <f>'User Interface'!$B7</f>
+        <v>NO</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f>'User Interface'!$B7</f>
+        <v>NO</v>
+      </c>
+      <c r="F7" s="9" t="str">
+        <f>'User Interface'!$B7</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="9">
+        <f>'User Interface'!$B8</f>
+        <v>0.95</v>
+      </c>
+      <c r="C8" s="9">
+        <f>'User Interface'!$B8</f>
+        <v>0.95</v>
+      </c>
+      <c r="D8" s="9">
+        <f>'User Interface'!$B8</f>
+        <v>0.95</v>
+      </c>
+      <c r="E8" s="9">
+        <f>'User Interface'!$B8</f>
+        <v>0.95</v>
+      </c>
+      <c r="F8" s="9">
+        <f>'User Interface'!$B8</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="9">
+        <f>INDEX(Refs_DO_NOT_EDIT!$A$2:$B$6,MATCH('User Interface'!B11,Refs_DO_NOT_EDIT!$A$2:$A$6,0),2)</f>
+        <v>5</v>
+      </c>
+      <c r="C9" s="9">
+        <f>INDEX(Refs_DO_NOT_EDIT!$A$2:$B$6,MATCH('User Interface'!C11,Refs_DO_NOT_EDIT!$A$2:$A$6,0),2)</f>
+        <v>4</v>
+      </c>
+      <c r="D9" s="9">
+        <f>INDEX(Refs_DO_NOT_EDIT!$A$2:$B$6,MATCH('User Interface'!D11,Refs_DO_NOT_EDIT!$A$2:$A$6,0),2)</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="9">
+        <f>INDEX(Refs_DO_NOT_EDIT!$A$2:$B$6,MATCH('User Interface'!E11,Refs_DO_NOT_EDIT!$A$2:$A$6,0),2)</f>
+        <v>5</v>
+      </c>
+      <c r="F9" s="9">
+        <f>INDEX(Refs_DO_NOT_EDIT!$A$2:$B$6,MATCH('User Interface'!F11,Refs_DO_NOT_EDIT!$A$2:$A$6,0),2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="9">
+        <f>'User Interface'!B12</f>
+        <v>500</v>
+      </c>
+      <c r="C10" s="9">
+        <f>'User Interface'!C12</f>
+        <v>300</v>
+      </c>
+      <c r="D10" s="9">
+        <f>'User Interface'!D12</f>
+        <v>100</v>
+      </c>
+      <c r="E10" s="9">
+        <f>'User Interface'!E12</f>
+        <v>80</v>
+      </c>
+      <c r="F10" s="9">
+        <f>'User Interface'!F12</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="9">
+        <f>'User Interface'!B13</f>
+        <v>0.15</v>
+      </c>
+      <c r="C11" s="9">
+        <f>'User Interface'!C13</f>
+        <v>0.15</v>
+      </c>
+      <c r="D11" s="9">
+        <f>'User Interface'!D13</f>
+        <v>0.15</v>
+      </c>
+      <c r="E11" s="9">
+        <f>'User Interface'!E13</f>
+        <v>0.08</v>
+      </c>
+      <c r="F11" s="9">
+        <f>'User Interface'!F13</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="9">
+        <f>'User Interface'!B14</f>
+        <v>2</v>
+      </c>
+      <c r="C12" s="9">
+        <f>'User Interface'!C14</f>
+        <v>2</v>
+      </c>
+      <c r="D12" s="9">
+        <f>'User Interface'!D14</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="9">
+        <f>'User Interface'!E14</f>
+        <v>2</v>
+      </c>
+      <c r="F12" s="9">
+        <f>'User Interface'!F14</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="9">
+        <f>'User Interface'!B15</f>
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="9">
+        <f>'User Interface'!C15</f>
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="9">
+        <f>'User Interface'!D15</f>
+        <v>0.05</v>
+      </c>
+      <c r="E13" s="9">
+        <f>'User Interface'!E15</f>
+        <v>0.05</v>
+      </c>
+      <c r="F13" s="9">
+        <f>'User Interface'!F15</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="9">
+        <f>'User Interface'!B16</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <f>'User Interface'!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <f>'User Interface'!D16</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <f>'User Interface'!E16</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <f>'User Interface'!F16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="9">
+        <f>'User Interface'!B18</f>
+        <v>0.9</v>
+      </c>
+      <c r="C15" s="9">
+        <f>'User Interface'!C18</f>
+        <v>0.9</v>
+      </c>
+      <c r="D15" s="9">
+        <f>'User Interface'!D18</f>
+        <v>0.9</v>
+      </c>
+      <c r="E15" s="9">
+        <f>'User Interface'!E18</f>
+        <v>0.9</v>
+      </c>
+      <c r="F15" s="9">
+        <f>'User Interface'!F18</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="9">
+        <f>'User Interface'!B19</f>
+        <v>40</v>
+      </c>
+      <c r="C16" s="9">
+        <f>'User Interface'!C19</f>
+        <v>40</v>
+      </c>
+      <c r="D16" s="9">
+        <f>'User Interface'!D19</f>
+        <v>40</v>
+      </c>
+      <c r="E16" s="9">
+        <f>'User Interface'!E19</f>
+        <v>40</v>
+      </c>
+      <c r="F16" s="9">
+        <f>'User Interface'!F19</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="str">
+        <f>IF(B2="Oil", "gor", "oil_yield")</f>
+        <v>oil_yield</v>
+      </c>
+      <c r="B17" s="9">
+        <f>'User Interface'!B20</f>
+        <v>2</v>
+      </c>
+      <c r="C17" s="9">
+        <f>'User Interface'!C20</f>
+        <v>2</v>
+      </c>
+      <c r="D17" s="9">
+        <f>'User Interface'!D20</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="9">
+        <f>'User Interface'!E20</f>
+        <v>2</v>
+      </c>
+      <c r="F17" s="9">
+        <f>'User Interface'!F20</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="9">
+        <f>'User Interface'!B21</f>
+        <v>1000</v>
+      </c>
+      <c r="C18" s="9">
+        <f>'User Interface'!C21</f>
+        <v>1000</v>
+      </c>
+      <c r="D18" s="9">
+        <f>'User Interface'!D21</f>
+        <v>1000</v>
+      </c>
+      <c r="E18" s="9">
+        <f>'User Interface'!E21</f>
+        <v>1000</v>
+      </c>
+      <c r="F18" s="9">
+        <f>'User Interface'!F21</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="9">
+        <f>'User Interface'!B22</f>
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="9">
+        <f>'User Interface'!C22</f>
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="9">
+        <f>'User Interface'!D22</f>
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="9">
+        <f>'User Interface'!E22</f>
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="9">
+        <f>'User Interface'!F22</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="9">
+        <f>'User Interface'!B23</f>
+        <v>3</v>
+      </c>
+      <c r="C20" s="9">
+        <f>'User Interface'!C23</f>
+        <v>3</v>
+      </c>
+      <c r="D20" s="9">
+        <f>'User Interface'!D23</f>
+        <v>3</v>
+      </c>
+      <c r="E20" s="9">
+        <f>'User Interface'!E23</f>
+        <v>3</v>
+      </c>
+      <c r="F20" s="9">
+        <f>'User Interface'!F23</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="9">
+        <f>'User Interface'!B24</f>
+        <v>800</v>
+      </c>
+      <c r="C21" s="9">
+        <f>'User Interface'!C24</f>
+        <v>800</v>
+      </c>
+      <c r="D21" s="9">
+        <f>'User Interface'!D24</f>
+        <v>800</v>
+      </c>
+      <c r="E21" s="9">
+        <f>'User Interface'!E24</f>
+        <v>800</v>
+      </c>
+      <c r="F21" s="9">
+        <f>'User Interface'!F24</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="9">
+        <f>'User Interface'!B25</f>
+        <v>0.06</v>
+      </c>
+      <c r="C22" s="9">
+        <f>'User Interface'!C25</f>
+        <v>0.06</v>
+      </c>
+      <c r="D22" s="9">
+        <f>'User Interface'!D25</f>
+        <v>0.06</v>
+      </c>
+      <c r="E22" s="9">
+        <f>'User Interface'!E25</f>
+        <v>0.06</v>
+      </c>
+      <c r="F22" s="9">
+        <f>'User Interface'!F25</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="9">
+        <f>'User Interface'!B26</f>
+        <v>0.02</v>
+      </c>
+      <c r="C23" s="9">
+        <f>'User Interface'!C26</f>
+        <v>0.02</v>
+      </c>
+      <c r="D23" s="9">
+        <f>'User Interface'!D26</f>
+        <v>0.02</v>
+      </c>
+      <c r="E23" s="9">
+        <f>'User Interface'!E26</f>
+        <v>0.02</v>
+      </c>
+      <c r="F23" s="9">
+        <f>'User Interface'!F26</f>
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED984C1-3B0A-4CD4-BEA6-F041E19E7488}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E91D5DB-E786-4F50-8834-E07806D5A808}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="23"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>